--- a/data/evidence/data_procesor/Weekly/All Project - Weekly Report.xlsx
+++ b/data/evidence/data_procesor/Weekly/All Project - Weekly Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\qualityreport\data\evidence\data_procesor\Weekly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LGSM065\OneDrive - LG CNS\QA IDB\Report\Quality Report\Weekly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF1B47F-E9EC-4952-A7AB-B2DEBB954DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2896CE87-E831-4A89-B6E8-ED334B32A3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" tabRatio="560" activeTab="7" xr2:uid="{1BFDC0BB-3264-4789-A41B-B16DE7BD9ED5}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" tabRatio="560" firstSheet="10" activeTab="10" xr2:uid="{1BFDC0BB-3264-4789-A41B-B16DE7BD9ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="18 Sep 25" sheetId="20" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="09 Oct 25" sheetId="28" r:id="rId7"/>
     <sheet name="16 Oct 25" sheetId="29" r:id="rId8"/>
     <sheet name="23 Oct 25" sheetId="30" r:id="rId9"/>
+    <sheet name="30 Oct 25" sheetId="32" r:id="rId10"/>
+    <sheet name="06 Nov 25" sheetId="31" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="150">
   <si>
     <t>Project Name</t>
   </si>
@@ -433,6 +435,9 @@
     <t>Finish 8 task and 4 story still in progress but due date 31-10-2025</t>
   </si>
   <si>
+    <t>Finish 35 SSR ticket, no defect found</t>
+  </si>
+  <si>
     <t>3 tasks In Development status are due at 31 October 2025</t>
   </si>
   <si>
@@ -447,6 +452,89 @@
 - Front part : Plan = 91 | Actual = 111
 - Back-end part : Plan = 83 | Actual = 95
 Overall Progress = 46.8%</t>
+  </si>
+  <si>
+    <t>20 ~ 24 Oct 2025</t>
+  </si>
+  <si>
+    <t>Completed 9 tasks and resolved 17 defects.</t>
+  </si>
+  <si>
+    <t>16 ~ 22 Oct 2025</t>
+  </si>
+  <si>
+    <t>Completed 17 tasks and 2 stories with no defects identified.</t>
+  </si>
+  <si>
+    <t>Completed 17 tasks and 3 stories; 2 tasks remain in progress, and no defects were found.</t>
+  </si>
+  <si>
+    <t>Completed 19 tasks with no defects identified.</t>
+  </si>
+  <si>
+    <t>Completed 15 SSR tickets with no defects reported.</t>
+  </si>
+  <si>
+    <t>Two tasks remain under development due to high workload.</t>
+  </si>
+  <si>
+    <t>This week, we successfully finalized all user stories for the new feature, concluding the requirements phase with the addition of stories for the Candidate List page, Activity History, Headcount configuration, and Interview Planning. Concurrently, the UI/UX team has started the design phase, which is on track to be completed by the end of the month, allowing development to commence next month.</t>
+  </si>
+  <si>
+    <t>17 ~ 23 Oct 2025</t>
+  </si>
+  <si>
+    <t>[Cumulative]
+- Authorization/Common part : Plan = 108 | Actual = 101 
+- Front part : Plan = 109 | Actual = 116
+- Back-end part : Plan = 103| Actual = 112
+delay reason : Development delayed due to interface testing. An additional developer joined last week, and task assignments were adjusted internally.
+Overall Progress = 51.7%</t>
+  </si>
+  <si>
+    <t>27 ~ 31 Oct 2025</t>
+  </si>
+  <si>
+    <t>Completed 11 tasks and resolved 20 defects.</t>
+  </si>
+  <si>
+    <t>30 Oct ~ 05 Nov 2025</t>
+  </si>
+  <si>
+    <t>Completed 16 out of 23 tasks; 7 tasks are still in progress</t>
+  </si>
+  <si>
+    <t>Completed 9 out of 12 tasks; 3 stories are still in progress and due on 14 November 2025.</t>
+  </si>
+  <si>
+    <t>Finish 55 of 59 Task, 3 Task still in progress and 1 defect found and its already resolved</t>
+  </si>
+  <si>
+    <t>Finish 45 SSR ticket, 5 defect found and has been fixed by developer.</t>
+  </si>
+  <si>
+    <t>Defect fixing could not be performed as several development tasks were delayed when the DEV environment was shut down during the BI audit.</t>
+  </si>
+  <si>
+    <t>Resolved 2 bugs. Completed 1 user story.</t>
+  </si>
+  <si>
+    <t>24 ~ 30 Oct 2025</t>
+  </si>
+  <si>
+    <t>[Cumulative]
+- Authorization/Common part : Plan = 123 | Actual = 107
+- Front part : Plan = 119 | Actual = 133
+- Back-end part : Plan = 121 | Actual = 125
+- Bank Sinarmas : Plan = 3 | Actual = 0
+delay reason : 
+Authorization Part Catch-Up Details : Total 99 remains(Including 3 BSIM development)
+   -. ~11/7 : 18 Complete (Visa Acquirer/Issuer, QRIS, UPI Acquirer/Issuer)
+   -. ~11/15 : 15 Complete (Prima ATM, Alto ATM)
+   -. ~11/21 : 17 Comelete (ATMB ATM, ATM Inquiry/Bill Payment)
+   -. ~11/28 : 33 Complete  (Prima EDC, Alto EDC, Core Banking, ATM Other Feature)
+   -. ~12/5 : 16 Complete (Screen, Post Authorization, API)
+Overall Progress = 59.9%</t>
   </si>
 </sst>
 </file>
@@ -454,9 +542,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,6 +705,28 @@
       <name val="LG Smart_H Regular"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="LG Smart_H Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="LG Smart_H Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="LG Smart_H Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="LG Smart_H Regular"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -771,10 +881,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1058,6 +1168,49 @@
     <xf numFmtId="2" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1080,6 +1233,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1875,49 +2034,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>77</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>55</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2069,49 +2228,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6</c:v>
+                  <c:v>-18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-10</c:v>
+                  <c:v>-19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-20</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2263,49 +2422,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>62</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>75</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>77</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2692,31 +2851,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>0.8571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.25</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>3.3333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>2.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7142857142857143</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>0.8571428571428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2850,31 +3009,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.4</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>16.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.571428571428571</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8888888888888888</c:v>
+                  <c:v>8.125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77777777777777779</c:v>
+                  <c:v>11.571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4285714285714288</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6</c:v>
+                  <c:v>11.625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>6.333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3008,31 +3167,31 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>15.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3518518518518519</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2432432432432432</c:v>
+                  <c:v>1.6896551724137931</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>3.0769230769230771E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1428571428571428</c:v>
+                  <c:v>0.29629629629629628</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3555555555555556</c:v>
+                  <c:v>1.6744186046511629</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3461538461538463</c:v>
+                  <c:v>3.2258064516129031E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88059701492537312</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.35</c:v>
+                  <c:v>1.5789473684210527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3203,28 +3362,28 @@
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>10</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>7</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>10</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>7</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>7</c:v>
+                        <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>2</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3378,25 +3537,25 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
                         <c:v>10</c:v>
                       </c:pt>
-                      <c:pt idx="1">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>7</c:v>
-                      </c:pt>
                       <c:pt idx="6">
-                        <c:v>10</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>5</c:v>
@@ -5724,25 +5883,25 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.3828125" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.15234375" style="82" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.53515625" style="82" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.15234375" style="82" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.3046875" style="82" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.84375" style="82" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="82" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="82" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="82" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.53515625" style="82" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.69140625" style="82" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.84375" style="82" customWidth="1"/>
-    <col min="11" max="16384" width="9.15234375" style="82"/>
+    <col min="8" max="8" width="8.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" style="82" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="87.75">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -5774,7 +5933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="93" customHeight="1">
       <c r="A2" s="64" t="s">
         <v>10</v>
       </c>
@@ -5809,7 +5968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="93" customHeight="1">
       <c r="A3" s="64" t="s">
         <v>13</v>
       </c>
@@ -5844,7 +6003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="93" customHeight="1">
       <c r="A4" s="64" t="s">
         <v>16</v>
       </c>
@@ -5879,7 +6038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="93" customHeight="1">
       <c r="A5" s="64" t="s">
         <v>18</v>
       </c>
@@ -5914,7 +6073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="93" customHeight="1">
       <c r="A6" s="64" t="s">
         <v>20</v>
       </c>
@@ -5949,7 +6108,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="93" customHeight="1">
       <c r="A7" s="91" t="s">
         <v>22</v>
       </c>
@@ -5984,9 +6143,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="71" t="s">
-        <v>113</v>
+    <row r="8" spans="1:10" ht="93" customHeight="1">
+      <c r="A8" s="64" t="s">
+        <v>24</v>
       </c>
       <c r="B8" s="93" t="s">
         <v>11</v>
@@ -6019,11 +6178,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="97" t="s">
+    <row r="9" spans="1:10" ht="15.75">
+      <c r="A9" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="97"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="94">
         <f>SUM(C2:C8)</f>
         <v>70</v>
@@ -6060,6 +6219,768 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9CAB4F-B00C-48AD-8BE4-747F53F88BC5}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="50.7109375" style="97" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="97" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="97" customWidth="1"/>
+    <col min="4" max="5" width="16.85546875" style="97" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="97" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" style="97" customWidth="1"/>
+    <col min="9" max="9" width="14" style="97" customWidth="1"/>
+    <col min="10" max="10" width="58.85546875" style="97" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="97" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="97"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="53.25">
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A2" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="101">
+        <v>26</v>
+      </c>
+      <c r="D2" s="101">
+        <v>26</v>
+      </c>
+      <c r="E2" s="101">
+        <v>0</v>
+      </c>
+      <c r="F2" s="101">
+        <v>0</v>
+      </c>
+      <c r="G2" s="102">
+        <f>IFERROR(D2/C2,"N/A")</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="103">
+        <f>IFERROR(E2/D2,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="102" t="str">
+        <f>IFERROR(F2/E2,"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="J2" s="104" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A3" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="101">
+        <v>19</v>
+      </c>
+      <c r="D3" s="101">
+        <v>19</v>
+      </c>
+      <c r="E3" s="101">
+        <v>0</v>
+      </c>
+      <c r="F3" s="101">
+        <v>0</v>
+      </c>
+      <c r="G3" s="102">
+        <f>IFERROR(D3/C3,"N/A")</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="103">
+        <f>IFERROR(E3/D3,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="102" t="str">
+        <f>IFERROR(F3/E3,"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="J3" s="104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A4" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="101">
+        <v>22</v>
+      </c>
+      <c r="D4" s="101">
+        <v>20</v>
+      </c>
+      <c r="E4" s="101">
+        <v>0</v>
+      </c>
+      <c r="F4" s="101">
+        <v>0</v>
+      </c>
+      <c r="G4" s="102">
+        <f>IFERROR(D4/C4,"N/A")</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="H4" s="103">
+        <f>IFERROR(E4/D4,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="102" t="str">
+        <f>IFERROR(F4/E4,"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="J4" s="99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A5" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="101">
+        <v>19</v>
+      </c>
+      <c r="D5" s="101">
+        <v>19</v>
+      </c>
+      <c r="E5" s="101">
+        <v>0</v>
+      </c>
+      <c r="F5" s="101">
+        <v>0</v>
+      </c>
+      <c r="G5" s="102">
+        <f>IFERROR(D5/C5,"N/A")</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="103">
+        <f>IFERROR(E5/D5,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="105" t="str">
+        <f>IFERROR(F5/E5,"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="J5" s="104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A6" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="101">
+        <v>15</v>
+      </c>
+      <c r="D6" s="101">
+        <v>15</v>
+      </c>
+      <c r="E6" s="101">
+        <v>0</v>
+      </c>
+      <c r="F6" s="101">
+        <v>0</v>
+      </c>
+      <c r="G6" s="102">
+        <f>IFERROR(D6/C6,"N/A")</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="103">
+        <f>IFERROR(E6/D6,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="105" t="str">
+        <f>IFERROR(F6/E6,"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="J6" s="104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="52.5" customHeight="1">
+      <c r="A7" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="101">
+        <v>21</v>
+      </c>
+      <c r="D7" s="101">
+        <v>19</v>
+      </c>
+      <c r="E7" s="101">
+        <v>3</v>
+      </c>
+      <c r="F7" s="101">
+        <v>3</v>
+      </c>
+      <c r="G7" s="102">
+        <f>IFERROR(D7/C7,"N/A")</f>
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="H7" s="103">
+        <f>IFERROR(E7/D7,"N/A")</f>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="I7" s="105">
+        <f>IFERROR(F7/E7,"N/A")</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="120" customHeight="1">
+      <c r="A8" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="101">
+        <v>0</v>
+      </c>
+      <c r="D8" s="101">
+        <v>0</v>
+      </c>
+      <c r="E8" s="101">
+        <v>0</v>
+      </c>
+      <c r="F8" s="101">
+        <v>0</v>
+      </c>
+      <c r="G8" s="102" t="str">
+        <f>IFERROR(D8/C8,"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="H8" s="103" t="str">
+        <f>IFERROR(E8/D8,"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="I8" s="105" t="str">
+        <f>IFERROR(F8/E8,"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="J8" s="74" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="172.5" customHeight="1">
+      <c r="A9" s="107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="101">
+        <v>320</v>
+      </c>
+      <c r="D9" s="101">
+        <v>329</v>
+      </c>
+      <c r="E9" s="101">
+        <v>0</v>
+      </c>
+      <c r="F9" s="101">
+        <v>0</v>
+      </c>
+      <c r="G9" s="102">
+        <f>IFERROR(D9/C9,"N/A")</f>
+        <v>1.028125</v>
+      </c>
+      <c r="H9" s="103">
+        <f>IFERROR(E9/D9,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="105" t="str">
+        <f>IFERROR(F9/E9,"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="J9" s="74" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30.75" customHeight="1">
+      <c r="A10" s="120" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="121"/>
+      <c r="C10" s="108">
+        <f>SUM(C2:C9)</f>
+        <v>442</v>
+      </c>
+      <c r="D10" s="108">
+        <f>SUM(D2:D9)</f>
+        <v>447</v>
+      </c>
+      <c r="E10" s="108">
+        <f>SUM(E2:E9)</f>
+        <v>3</v>
+      </c>
+      <c r="F10" s="108">
+        <f>SUM(F2:F9)</f>
+        <v>3</v>
+      </c>
+      <c r="G10" s="109">
+        <f>IFERROR(AVERAGE(G2:G9),"N/A")</f>
+        <v>0.97742540197897354</v>
+      </c>
+      <c r="H10" s="110">
+        <f>IFERROR(AVERAGE(H2:H9),"N/A")</f>
+        <v>2.2556390977443608E-2</v>
+      </c>
+      <c r="I10" s="109">
+        <f>IFERROR(AVERAGE(I2:I9),"N/A")</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="111"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55C5DE7-8791-499C-B2AD-91F317D79708}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="50.7109375" style="97" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="97" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="97" customWidth="1"/>
+    <col min="4" max="5" width="16.85546875" style="97" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="97" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" style="97" customWidth="1"/>
+    <col min="9" max="9" width="14" style="97" customWidth="1"/>
+    <col min="10" max="10" width="70.28515625" style="97" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="97" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="97"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="53.25">
+      <c r="A1" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A2" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="101">
+        <v>31</v>
+      </c>
+      <c r="D2" s="101">
+        <v>31</v>
+      </c>
+      <c r="E2" s="101">
+        <v>0</v>
+      </c>
+      <c r="F2" s="101">
+        <v>0</v>
+      </c>
+      <c r="G2" s="102">
+        <f>IFERROR(D2/C2,"N/A")</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="103">
+        <f>IFERROR(E2/D2,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="102" t="str">
+        <f>IFERROR(F2/E2,"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="J2" s="104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A3" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="101">
+        <v>23</v>
+      </c>
+      <c r="D3" s="101">
+        <v>16</v>
+      </c>
+      <c r="E3" s="101">
+        <v>0</v>
+      </c>
+      <c r="F3" s="101">
+        <v>0</v>
+      </c>
+      <c r="G3" s="102">
+        <f>IFERROR(D3/C3,"N/A")</f>
+        <v>0.69565217391304346</v>
+      </c>
+      <c r="H3" s="103">
+        <f>IFERROR(E3/D3,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="102" t="str">
+        <f>IFERROR(F3/E3,"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="J3" s="104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A4" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="101">
+        <v>12</v>
+      </c>
+      <c r="D4" s="101">
+        <v>9</v>
+      </c>
+      <c r="E4" s="101">
+        <v>0</v>
+      </c>
+      <c r="F4" s="101">
+        <v>0</v>
+      </c>
+      <c r="G4" s="102">
+        <f>IFERROR(D4/C4,"N/A")</f>
+        <v>0.75</v>
+      </c>
+      <c r="H4" s="103">
+        <f>IFERROR(E4/D4,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="102" t="str">
+        <f>IFERROR(F4/E4,"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="J4" s="99" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="38.25" customHeight="1">
+      <c r="A5" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="101">
+        <v>59</v>
+      </c>
+      <c r="D5" s="101">
+        <v>55</v>
+      </c>
+      <c r="E5" s="101">
+        <v>1</v>
+      </c>
+      <c r="F5" s="101">
+        <v>1</v>
+      </c>
+      <c r="G5" s="102">
+        <f>IFERROR(D5/C5,"N/A")</f>
+        <v>0.93220338983050843</v>
+      </c>
+      <c r="H5" s="103">
+        <f>IFERROR(E5/D5,"N/A")</f>
+        <v>1.8181818181818181E-2</v>
+      </c>
+      <c r="I5" s="105">
+        <f>IFERROR(F5/E5,"N/A")</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="104" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="48.75" customHeight="1">
+      <c r="A6" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="101">
+        <v>45</v>
+      </c>
+      <c r="D6" s="101">
+        <v>45</v>
+      </c>
+      <c r="E6" s="101">
+        <v>5</v>
+      </c>
+      <c r="F6" s="101">
+        <v>5</v>
+      </c>
+      <c r="G6" s="102">
+        <f>IFERROR(D6/C6,"N/A")</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="103">
+        <f>IFERROR(E6/D6,"N/A")</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I6" s="105">
+        <f>IFERROR(F6/E6,"N/A")</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="52.5" customHeight="1">
+      <c r="A7" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="101">
+        <v>15</v>
+      </c>
+      <c r="D7" s="101">
+        <v>12</v>
+      </c>
+      <c r="E7" s="101">
+        <v>1</v>
+      </c>
+      <c r="F7" s="101">
+        <v>0</v>
+      </c>
+      <c r="G7" s="102">
+        <f>IFERROR(D7/C7,"N/A")</f>
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="103">
+        <f>IFERROR(E7/D7,"N/A")</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I7" s="105">
+        <f>IFERROR(F7/E7,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="107" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="44.25" customHeight="1">
+      <c r="A8" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="100" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="101">
+        <v>1</v>
+      </c>
+      <c r="D8" s="101">
+        <v>1</v>
+      </c>
+      <c r="E8" s="101">
+        <v>2</v>
+      </c>
+      <c r="F8" s="101">
+        <v>2</v>
+      </c>
+      <c r="G8" s="102">
+        <f>IFERROR(D8/C8,"N/A")</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="103">
+        <f>IFERROR(E8/D8,"N/A")</f>
+        <v>2</v>
+      </c>
+      <c r="I8" s="105">
+        <f>IFERROR(F8/E8,"N/A")</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="294.75" customHeight="1">
+      <c r="A9" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="101">
+        <v>366</v>
+      </c>
+      <c r="D9" s="101">
+        <v>365</v>
+      </c>
+      <c r="E9" s="101">
+        <v>0</v>
+      </c>
+      <c r="F9" s="101">
+        <v>0</v>
+      </c>
+      <c r="G9" s="102">
+        <f>IFERROR(D9/C9,"N/A")</f>
+        <v>0.99726775956284153</v>
+      </c>
+      <c r="H9" s="103">
+        <f>IFERROR(E9/D9,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="105" t="str">
+        <f>IFERROR(F9/E9,"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="J9" s="74" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30.75" customHeight="1">
+      <c r="A10" s="120" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="121"/>
+      <c r="C10" s="108">
+        <f>SUM(C2:C9)</f>
+        <v>552</v>
+      </c>
+      <c r="D10" s="108">
+        <f>SUM(D2:D9)</f>
+        <v>534</v>
+      </c>
+      <c r="E10" s="108">
+        <f>SUM(E2:E9)</f>
+        <v>9</v>
+      </c>
+      <c r="F10" s="108">
+        <f>SUM(F2:F9)</f>
+        <v>8</v>
+      </c>
+      <c r="G10" s="109">
+        <f>IFERROR(AVERAGE(G2:G9),"N/A")</f>
+        <v>0.89689041541329917</v>
+      </c>
+      <c r="H10" s="110">
+        <f>IFERROR(AVERAGE(H2:H9),"N/A")</f>
+        <v>0.27657828282828284</v>
+      </c>
+      <c r="I10" s="109">
+        <f>IFERROR(AVERAGE(I2:I9),"N/A")</f>
+        <v>0.75</v>
+      </c>
+      <c r="J10" s="111"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -6071,25 +6992,25 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.69140625" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3046875" style="82" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.69140625" style="82" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.69140625" style="82" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.3046875" style="82" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.3046875" style="82" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="82" customWidth="1"/>
     <col min="7" max="7" width="9" style="82" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.15234375" style="82" customWidth="1"/>
-    <col min="9" max="9" width="8.69140625" style="82" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="72.53515625" style="86" customWidth="1"/>
-    <col min="11" max="16384" width="9.15234375" style="82"/>
+    <col min="8" max="8" width="10.140625" style="82" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="72.5703125" style="86" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="86" customFormat="1" ht="60" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="86" customFormat="1" ht="70.5">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -6121,7 +7042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="53.25" customHeight="1">
       <c r="A2" s="83" t="s">
         <v>10</v>
       </c>
@@ -6156,7 +7077,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="53.25" customHeight="1">
       <c r="A3" s="83" t="s">
         <v>13</v>
       </c>
@@ -6191,7 +7112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="53.25" customHeight="1">
       <c r="A4" s="83" t="s">
         <v>16</v>
       </c>
@@ -6226,7 +7147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="53.25" customHeight="1">
       <c r="A5" s="83" t="s">
         <v>31</v>
       </c>
@@ -6261,7 +7182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="53.25" customHeight="1">
       <c r="A6" s="83" t="s">
         <v>18</v>
       </c>
@@ -6296,7 +7217,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="53.25" customHeight="1">
       <c r="A7" s="83" t="s">
         <v>20</v>
       </c>
@@ -6331,7 +7252,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="53.25" customHeight="1">
       <c r="A8" s="85" t="s">
         <v>22</v>
       </c>
@@ -6366,7 +7287,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="53.25" customHeight="1">
       <c r="A9" s="83" t="s">
         <v>24</v>
       </c>
@@ -6401,9 +7322,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="71" t="s">
-        <v>113</v>
+    <row r="10" spans="1:10" ht="53.25" customHeight="1">
+      <c r="A10" s="83" t="s">
+        <v>36</v>
       </c>
       <c r="B10" s="84" t="s">
         <v>27</v>
@@ -6436,11 +7357,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="98" t="s">
+    <row r="11" spans="1:10" ht="45" customHeight="1">
+      <c r="A11" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="98"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="88">
         <f>SUM(C2:C10)</f>
         <v>318</v>
@@ -6491,19 +7412,19 @@
       <selection activeCell="B23" sqref="B23:B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.65"/>
   <cols>
-    <col min="1" max="1" width="13.3046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="55" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.69140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.69140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="58.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.15234375" style="1"/>
+    <col min="3" max="3" width="23.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="58.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3">
       <c r="B2" s="9" t="s">
         <v>38</v>
       </c>
@@ -6512,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3">
       <c r="B3" s="9" t="s">
         <v>39</v>
       </c>
@@ -6521,7 +7442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3">
       <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
@@ -6530,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="25.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="25.7">
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
@@ -6550,7 +7471,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7">
       <c r="A23" s="25" t="s">
         <v>43</v>
       </c>
@@ -6563,7 +7484,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7">
       <c r="A24" s="25" t="s">
         <v>45</v>
       </c>
@@ -6576,7 +7497,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7">
       <c r="A25" s="25" t="s">
         <v>45</v>
       </c>
@@ -6589,7 +7510,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7">
       <c r="A26" s="25" t="s">
         <v>48</v>
       </c>
@@ -6602,7 +7523,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7">
       <c r="A27" s="25" t="s">
         <v>45</v>
       </c>
@@ -6615,7 +7536,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7">
       <c r="A28" s="25" t="s">
         <v>45</v>
       </c>
@@ -6628,7 +7549,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7">
       <c r="A29" s="25" t="s">
         <v>52</v>
       </c>
@@ -6641,7 +7562,7 @@
       <c r="F29" s="23"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" ht="20.7" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="20.65" customHeight="1">
       <c r="A30" s="25" t="s">
         <v>54</v>
       </c>
@@ -6654,7 +7575,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7">
       <c r="A31" s="25" t="s">
         <v>56</v>
       </c>
@@ -6667,7 +7588,7 @@
       <c r="F31" s="19"/>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7">
       <c r="A32" s="25" t="s">
         <v>58</v>
       </c>
@@ -6680,7 +7601,7 @@
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7">
       <c r="A33" s="25" t="s">
         <v>60</v>
       </c>
@@ -6693,7 +7614,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7">
       <c r="A34" s="25" t="s">
         <v>45</v>
       </c>
@@ -6706,7 +7627,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7">
       <c r="A35" s="25" t="s">
         <v>63</v>
       </c>
@@ -6719,7 +7640,7 @@
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7">
       <c r="A36" s="25" t="s">
         <v>65</v>
       </c>
@@ -6732,7 +7653,7 @@
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7">
       <c r="A37" s="25" t="s">
         <v>67</v>
       </c>
@@ -6763,45 +7684,45 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.65"/>
   <cols>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="23.69140625" customWidth="1"/>
-    <col min="4" max="4" width="9.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.69140625" customWidth="1"/>
-    <col min="6" max="6" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69140625" customWidth="1"/>
-    <col min="8" max="8" width="102.3046875" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="102.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3">
       <c r="B2" s="26" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="26">
         <f ca="1">D30</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
       <c r="B3" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="26">
         <f ca="1">F30</f>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="26" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="27">
         <f ca="1">G30</f>
-        <v>-9.8591549295774641E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="25.75" x14ac:dyDescent="0.4">
+        <v>6.9767441860465115E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="25.7">
       <c r="B22" s="28" t="s">
         <v>0</v>
       </c>
@@ -6824,7 +7745,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8">
       <c r="B23" s="11" t="s">
         <v>44</v>
       </c>
@@ -6833,23 +7754,23 @@
       </c>
       <c r="D23" s="31">
         <f ca="1">RANDBETWEEN(50,80)</f>
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E23" s="31">
         <f ca="1">RANDBETWEEN(51,80)</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F23" s="31">
         <f ca="1">D23-E23</f>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="G23" s="32">
         <f ca="1">F23/D23</f>
-        <v>-6.8965517241379309E-2</v>
+        <v>1.5384615384615385E-2</v>
       </c>
       <c r="H23" s="29"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8">
       <c r="B24" s="12" t="s">
         <v>46</v>
       </c>
@@ -6858,23 +7779,23 @@
       </c>
       <c r="D24" s="31">
         <f t="shared" ref="D24:D37" ca="1" si="0">RANDBETWEEN(51,100)</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="31">
         <f t="shared" ref="E24:E37" ca="1" si="1">RANDBETWEEN(50,80)</f>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F24" s="31">
         <f t="shared" ref="F24:F29" ca="1" si="2">D24-E24</f>
-        <v>8</v>
+        <v>-5</v>
       </c>
       <c r="G24" s="32">
         <f t="shared" ref="G24:G29" ca="1" si="3">F24/D24</f>
-        <v>0.12903225806451613</v>
+        <v>-8.1967213114754092E-2</v>
       </c>
       <c r="H24" s="33"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8">
       <c r="B25" s="12" t="s">
         <v>47</v>
       </c>
@@ -6883,23 +7804,23 @@
       </c>
       <c r="D25" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E25" s="31">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F25" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G25" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46</v>
+        <v>0.35802469135802467</v>
       </c>
       <c r="H25" s="29"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8">
       <c r="B26" s="12" t="s">
         <v>49</v>
       </c>
@@ -6908,23 +7829,23 @@
       </c>
       <c r="D26" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E26" s="31">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F26" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G26" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30952380952380953</v>
+        <v>0.22826086956521738</v>
       </c>
       <c r="H26" s="29"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8">
       <c r="B27" s="12" t="s">
         <v>50</v>
       </c>
@@ -6933,23 +7854,23 @@
       </c>
       <c r="D27" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E27" s="31">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F27" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G27" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30107526881720431</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="H27" s="29"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8">
       <c r="B28" s="12" t="s">
         <v>51</v>
       </c>
@@ -6958,11 +7879,11 @@
       </c>
       <c r="D28" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E28" s="31">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F28" s="31">
         <f t="shared" ca="1" si="2"/>
@@ -6970,11 +7891,11 @@
       </c>
       <c r="G28" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22988505747126436</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="H28" s="29"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8">
       <c r="B29" s="12" t="s">
         <v>53</v>
       </c>
@@ -6983,23 +7904,23 @@
       </c>
       <c r="D29" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E29" s="31">
         <f ca="1">RANDBETWEEN(50,80)</f>
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F29" s="31">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G29" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.2247191011235955</v>
       </c>
       <c r="H29" s="34"/>
     </row>
-    <row r="30" spans="2:8" ht="25.75" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8" ht="25.7">
       <c r="B30" s="20" t="s">
         <v>55</v>
       </c>
@@ -7008,23 +7929,23 @@
       </c>
       <c r="D30" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E30" s="31">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F30" s="31">
         <f t="shared" ref="F30:F37" ca="1" si="4">D30-E30</f>
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="G30" s="32">
         <f t="shared" ref="G30:G37" ca="1" si="5">F30/D30</f>
-        <v>-9.8591549295774641E-2</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="H30" s="34"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8">
       <c r="B31" s="20" t="s">
         <v>57</v>
       </c>
@@ -7033,23 +7954,23 @@
       </c>
       <c r="D31" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="E31" s="31">
         <f ca="1">RANDBETWEEN(50,80)</f>
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F31" s="31">
         <f t="shared" ca="1" si="4"/>
-        <v>-3</v>
+        <v>27</v>
       </c>
       <c r="G31" s="32">
         <f t="shared" ca="1" si="5"/>
-        <v>-4.2857142857142858E-2</v>
+        <v>0.29347826086956524</v>
       </c>
       <c r="H31" s="34"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:8">
       <c r="B32" s="20" t="s">
         <v>59</v>
       </c>
@@ -7058,23 +7979,23 @@
       </c>
       <c r="D32" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="E32" s="31">
         <f ca="1">RANDBETWEEN(50,80)</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F32" s="31">
         <f t="shared" ca="1" si="4"/>
-        <v>-1</v>
+        <v>45</v>
       </c>
       <c r="G32" s="32">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.8867924528301886E-2</v>
+        <v>0.47368421052631576</v>
       </c>
       <c r="H32" s="34"/>
     </row>
-    <row r="33" spans="2:8" ht="25.75" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:8" ht="25.7">
       <c r="B33" s="20" t="s">
         <v>61</v>
       </c>
@@ -7083,23 +8004,23 @@
       </c>
       <c r="D33" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E33" s="31">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F33" s="31">
         <f t="shared" ca="1" si="4"/>
-        <v>-6</v>
+        <v>-18</v>
       </c>
       <c r="G33" s="32">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.10344827586206896</v>
+        <v>-0.31578947368421051</v>
       </c>
       <c r="H33" s="34"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:8">
       <c r="B34" s="20" t="s">
         <v>62</v>
       </c>
@@ -7108,23 +8029,23 @@
       </c>
       <c r="D34" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E34" s="31">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F34" s="31">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G34" s="32">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5974025974025976E-2</v>
+        <v>0.4</v>
       </c>
       <c r="H34" s="34"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:8">
       <c r="B35" s="20" t="s">
         <v>64</v>
       </c>
@@ -7133,23 +8054,23 @@
       </c>
       <c r="D35" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E35" s="31">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F35" s="31">
         <f t="shared" ca="1" si="4"/>
-        <v>-10</v>
+        <v>-19</v>
       </c>
       <c r="G35" s="32">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.18181818181818182</v>
+        <v>-0.35185185185185186</v>
       </c>
       <c r="H35" s="34"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:8">
       <c r="B36" s="20" t="s">
         <v>66</v>
       </c>
@@ -7158,23 +8079,23 @@
       </c>
       <c r="D36" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="E36" s="31">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F36" s="31">
         <f t="shared" ca="1" si="4"/>
-        <v>-3</v>
+        <v>42</v>
       </c>
       <c r="G36" s="32">
         <f t="shared" ca="1" si="5"/>
-        <v>-4.1666666666666664E-2</v>
+        <v>0.45652173913043476</v>
       </c>
       <c r="H36" s="34"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:8">
       <c r="B37" s="20" t="s">
         <v>68</v>
       </c>
@@ -7183,19 +8104,19 @@
       </c>
       <c r="D37" s="31">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E37" s="31">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F37" s="31">
         <f t="shared" ca="1" si="4"/>
-        <v>-20</v>
+        <v>17</v>
       </c>
       <c r="G37" s="32">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.35087719298245612</v>
+        <v>0.21249999999999999</v>
       </c>
       <c r="H37" s="34"/>
     </row>
@@ -7212,25 +8133,25 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="32" style="45" customWidth="1"/>
-    <col min="2" max="2" width="19.15234375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="18.3828125" style="45" customWidth="1"/>
-    <col min="4" max="6" width="16.84375" style="45" customWidth="1"/>
-    <col min="7" max="8" width="11.69140625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="45" customWidth="1"/>
+    <col min="4" max="6" width="16.85546875" style="45" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" style="45" customWidth="1"/>
     <col min="9" max="9" width="14" style="45" customWidth="1"/>
-    <col min="10" max="10" width="58.84375" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.15234375" style="45"/>
+    <col min="10" max="10" width="58.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="36.6" customHeight="1">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -7262,7 +8183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="30.6" customHeight="1">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -7297,7 +8218,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="30.6" customHeight="1">
       <c r="A3" s="47" t="s">
         <v>13</v>
       </c>
@@ -7332,7 +8253,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="30.6" customHeight="1">
       <c r="A4" s="47" t="s">
         <v>16</v>
       </c>
@@ -7367,7 +8288,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="30.6" customHeight="1">
       <c r="A5" s="47" t="s">
         <v>31</v>
       </c>
@@ -7402,7 +8323,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="30.6" customHeight="1">
       <c r="A6" s="47" t="s">
         <v>18</v>
       </c>
@@ -7437,7 +8358,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="30.6" customHeight="1">
       <c r="A7" s="47" t="s">
         <v>20</v>
       </c>
@@ -7472,7 +8393,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="30.6" customHeight="1">
       <c r="A8" s="56" t="s">
         <v>22</v>
       </c>
@@ -7507,7 +8428,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="30.6" customHeight="1">
       <c r="A9" s="55" t="s">
         <v>24</v>
       </c>
@@ -7542,9 +8463,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="71" t="s">
-        <v>113</v>
+    <row r="10" spans="1:10" ht="30.6" customHeight="1">
+      <c r="A10" s="55" t="s">
+        <v>36</v>
       </c>
       <c r="B10" s="57" t="s">
         <v>82</v>
@@ -7577,11 +8498,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="99" t="s">
+    <row r="11" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A11" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="100"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="59">
         <f>SUM(C2:C10)</f>
         <v>279</v>
@@ -7612,6 +8533,7 @@
       </c>
       <c r="J11" s="62"/>
     </row>
+    <row r="12" spans="1:10"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A11:B11"/>
@@ -7632,47 +8554,47 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.65"/>
   <cols>
-    <col min="1" max="1" width="13.15234375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.15234375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.69140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3828125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="16.84375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.69140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="16.85546875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="11" width="58.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.15234375" style="1"/>
+    <col min="11" max="11" width="58.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3">
       <c r="B2" s="43" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="9">
         <f ca="1">D32</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
       <c r="B3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="9">
         <f ca="1">E32</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="10">
         <f ca="1">J32</f>
-        <v>1.3707694801392978</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="36.65" customHeight="1" x14ac:dyDescent="0.4">
+        <v>11.124334600414926</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="36.6" customHeight="1">
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
@@ -7704,7 +8626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:11" ht="22.5" customHeight="1">
       <c r="B23" s="3" t="s">
         <v>10</v>
       </c>
@@ -7717,31 +8639,31 @@
       </c>
       <c r="E23" s="5">
         <f t="shared" ref="E23:E31" ca="1" si="1">RANDBETWEEN(5,10)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ref="F23:G23" ca="1" si="2">RANDBETWEEN(1,100)</f>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="H23" s="35">
         <f t="shared" ref="H23:H31" ca="1" si="3">IFERROR(E23/D23,"N/A")</f>
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="I23" s="44">
         <f t="shared" ref="I23:I31" ca="1" si="4">IFERROR(F23/E23,"N/A")</f>
-        <v>2.4</v>
+        <v>0.75</v>
       </c>
       <c r="J23" s="35">
         <f t="shared" ref="J23:J31" ca="1" si="5">IFERROR(G23/F23,"N/A")</f>
-        <v>0.16666666666666666</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:11" ht="22.5" customHeight="1">
       <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
@@ -7750,35 +8672,35 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ref="F24:G31" ca="1" si="6">RANDBETWEEN(1,100)</f>
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="H24" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I24" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="J24" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3518518518518519</v>
+        <v>0.15</v>
       </c>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:11" ht="22.5" customHeight="1">
       <c r="B25" s="3" t="s">
         <v>16</v>
       </c>
@@ -7787,35 +8709,35 @@
       </c>
       <c r="D25" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="H25" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="I25" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>10.571428571428571</v>
+        <v>5.8</v>
       </c>
       <c r="J25" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2432432432432432</v>
+        <v>1.6896551724137931</v>
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:11" ht="22.5" customHeight="1">
       <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
@@ -7824,35 +8746,35 @@
       </c>
       <c r="D26" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H26" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9</v>
+        <v>8</v>
       </c>
       <c r="I26" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>2.8888888888888888</v>
+        <v>8.125</v>
       </c>
       <c r="J26" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5</v>
+        <v>3.0769230769230771E-2</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:11" ht="22.5" customHeight="1">
       <c r="B27" s="3" t="s">
         <v>18</v>
       </c>
@@ -7865,31 +8787,31 @@
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H27" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="I27" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77777777777777779</v>
+        <v>11.571428571428571</v>
       </c>
       <c r="J27" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>3.1428571428571428</v>
+        <v>0.29629629629629628</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:11" ht="22.5" customHeight="1">
       <c r="B28" s="3" t="s">
         <v>20</v>
       </c>
@@ -7898,35 +8820,35 @@
       </c>
       <c r="D28" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H28" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="I28" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>6.4285714285714288</v>
+        <v>4.3</v>
       </c>
       <c r="J28" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3555555555555556</v>
+        <v>1.6744186046511629</v>
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:11" ht="22.5" customHeight="1">
       <c r="B29" s="24" t="s">
         <v>22</v>
       </c>
@@ -7935,35 +8857,35 @@
       </c>
       <c r="D29" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="H29" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I29" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>2.6</v>
+        <v>11.625</v>
       </c>
       <c r="J29" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>3.3461538461538463</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:11" ht="22.5" customHeight="1">
       <c r="B30" s="42" t="s">
         <v>24</v>
       </c>
@@ -7972,7 +8894,7 @@
       </c>
       <c r="D30" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -7980,27 +8902,27 @@
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="H30" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7142857142857143</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="I30" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>13.4</v>
+        <v>0.2</v>
       </c>
       <c r="J30" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88059701492537312</v>
+        <v>79</v>
       </c>
       <c r="K30" s="8"/>
     </row>
-    <row r="31" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:11" ht="22.5" customHeight="1">
       <c r="B31" s="42" t="s">
         <v>36</v>
       </c>
@@ -8009,7 +8931,7 @@
       </c>
       <c r="D31" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -8017,58 +8939,58 @@
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="H31" s="35">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I31" s="44">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="J31" s="35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35</v>
+        <v>1.5789473684210527</v>
       </c>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="101" t="s">
+    <row r="32" spans="2:11" ht="25.5" customHeight="1">
+      <c r="B32" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="102"/>
+      <c r="C32" s="117"/>
       <c r="D32" s="36">
         <f ca="1">SUM(D23:D31)</f>
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E32" s="36">
         <f ca="1">SUM(E23:E31)</f>
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F32" s="36">
         <f t="shared" ref="F32:G32" ca="1" si="7">SUM(F23:F31)</f>
-        <v>383</v>
+        <v>456</v>
       </c>
       <c r="G32" s="36">
         <f t="shared" ca="1" si="7"/>
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="H32" s="37">
         <f ca="1">IFERROR(AVERAGE(H23:H31),"N/A")</f>
-        <v>1.8626984126984125</v>
+        <v>2.4577601410934751</v>
       </c>
       <c r="I32" s="37">
         <f ca="1">IFERROR(AVERAGE(I23:I31),"N/A")</f>
-        <v>6.1185185185185187</v>
+        <v>7.2634920634920626</v>
       </c>
       <c r="J32" s="40">
         <f ca="1">IFERROR(AVERAGE(J23:J31),"N/A")</f>
-        <v>1.3707694801392978</v>
+        <v>11.124334600414926</v>
       </c>
       <c r="K32" s="38"/>
     </row>
@@ -8090,23 +9012,23 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="32" style="45" customWidth="1"/>
-    <col min="2" max="2" width="32.15234375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="18.3828125" style="45" customWidth="1"/>
-    <col min="4" max="5" width="16.84375" style="45" customWidth="1"/>
-    <col min="6" max="6" width="15.84375" style="45" customWidth="1"/>
-    <col min="7" max="8" width="11.69140625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="45" customWidth="1"/>
+    <col min="4" max="5" width="16.85546875" style="45" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="45" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" style="45" customWidth="1"/>
     <col min="9" max="9" width="14" style="45" customWidth="1"/>
-    <col min="10" max="10" width="58.84375" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.15234375" style="45"/>
+    <col min="10" max="10" width="58.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="53.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -8138,7 +9060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="48" customHeight="1">
       <c r="A2" s="64" t="s">
         <v>10</v>
       </c>
@@ -8173,7 +9095,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="48" customHeight="1">
       <c r="A3" s="64" t="s">
         <v>13</v>
       </c>
@@ -8208,7 +9130,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="48" customHeight="1">
       <c r="A4" s="64" t="s">
         <v>16</v>
       </c>
@@ -8243,7 +9165,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="48" customHeight="1">
       <c r="A5" s="64" t="s">
         <v>31</v>
       </c>
@@ -8278,7 +9200,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="48" customHeight="1">
       <c r="A6" s="64" t="s">
         <v>18</v>
       </c>
@@ -8313,7 +9235,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="48" customHeight="1">
       <c r="A7" s="64" t="s">
         <v>20</v>
       </c>
@@ -8348,7 +9270,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="48" customHeight="1">
       <c r="A8" s="72" t="s">
         <v>22</v>
       </c>
@@ -8383,7 +9305,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="48" customHeight="1">
       <c r="A9" s="71" t="s">
         <v>24</v>
       </c>
@@ -8418,9 +9340,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="88.5">
       <c r="A10" s="71" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="B10" s="65" t="s">
         <v>101</v>
@@ -8453,11 +9375,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="103" t="s">
+    <row r="11" spans="1:10" ht="15.75">
+      <c r="A11" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="104"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="75">
         <f>SUM(C2:C10)</f>
         <v>391</v>
@@ -8504,24 +9426,24 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="50.69140625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="32.15234375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="18.3828125" style="45" customWidth="1"/>
-    <col min="4" max="5" width="16.84375" style="45" customWidth="1"/>
-    <col min="6" max="6" width="15.84375" style="45" customWidth="1"/>
-    <col min="7" max="8" width="11.69140625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" style="45" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="45" customWidth="1"/>
+    <col min="4" max="5" width="16.85546875" style="45" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="45" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" style="45" customWidth="1"/>
     <col min="9" max="9" width="14" style="45" customWidth="1"/>
-    <col min="10" max="10" width="58.84375" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.15234375" style="45"/>
+    <col min="10" max="10" width="58.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="53.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -8553,7 +9475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="38.25" customHeight="1">
       <c r="A2" s="64" t="s">
         <v>10</v>
       </c>
@@ -8588,7 +9510,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="38.25" customHeight="1">
       <c r="A3" s="64" t="s">
         <v>13</v>
       </c>
@@ -8623,7 +9545,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="38.25" customHeight="1">
       <c r="A4" s="64" t="s">
         <v>16</v>
       </c>
@@ -8658,7 +9580,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="38.25" customHeight="1">
       <c r="A5" s="64" t="s">
         <v>31</v>
       </c>
@@ -8693,7 +9615,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="38.25" customHeight="1">
       <c r="A6" s="64" t="s">
         <v>18</v>
       </c>
@@ -8728,7 +9650,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="70.5">
       <c r="A7" s="64" t="s">
         <v>20</v>
       </c>
@@ -8763,7 +9685,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="38.25" customHeight="1">
       <c r="A8" s="72" t="s">
         <v>22</v>
       </c>
@@ -8798,7 +9720,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="38.25" customHeight="1">
       <c r="A9" s="71" t="s">
         <v>24</v>
       </c>
@@ -8833,7 +9755,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="114" customHeight="1">
       <c r="A10" s="71" t="s">
         <v>113</v>
       </c>
@@ -8868,11 +9790,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="103" t="s">
+    <row r="11" spans="1:10" ht="15.75">
+      <c r="A11" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="104"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="75">
         <f>SUM(C2:C10)</f>
         <v>516</v>
@@ -8917,27 +9839,27 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="50.69140625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="26.69140625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="18.3828125" style="45" customWidth="1"/>
-    <col min="4" max="5" width="16.84375" style="45" customWidth="1"/>
-    <col min="6" max="6" width="15.84375" style="45" customWidth="1"/>
-    <col min="7" max="8" width="11.69140625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" style="45" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="45" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="45" customWidth="1"/>
+    <col min="4" max="5" width="16.85546875" style="45" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="45" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" style="45" customWidth="1"/>
     <col min="9" max="9" width="14" style="45" customWidth="1"/>
-    <col min="10" max="10" width="58.84375" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.15234375" style="45" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.15234375" style="45"/>
+    <col min="10" max="10" width="58.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="53.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -8969,7 +9891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="38.25" customHeight="1">
       <c r="A2" s="64" t="s">
         <v>10</v>
       </c>
@@ -9004,7 +9926,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="38.25" customHeight="1">
       <c r="A3" s="64" t="s">
         <v>13</v>
       </c>
@@ -9039,7 +9961,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="38.25" customHeight="1">
       <c r="A4" s="64" t="s">
         <v>16</v>
       </c>
@@ -9074,7 +9996,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="38.25" customHeight="1">
       <c r="A5" s="64" t="s">
         <v>31</v>
       </c>
@@ -9109,7 +10031,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="38.25" customHeight="1">
       <c r="A6" s="64" t="s">
         <v>18</v>
       </c>
@@ -9144,7 +10066,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="48.75" customHeight="1">
       <c r="A7" s="64" t="s">
         <v>20</v>
       </c>
@@ -9176,10 +10098,10 @@
         <v>N/A</v>
       </c>
       <c r="J7" s="69" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="52.5" customHeight="1">
       <c r="A8" s="72" t="s">
         <v>22</v>
       </c>
@@ -9211,10 +10133,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="71" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="91.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="91.5" customHeight="1">
       <c r="A9" s="71" t="s">
         <v>24</v>
       </c>
@@ -9246,15 +10168,15 @@
         <v>N/A</v>
       </c>
       <c r="J9" s="73" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="96" customHeight="1">
       <c r="A10" s="71" t="s">
         <v>113</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C10" s="66">
         <v>255</v>
@@ -9281,14 +10203,14 @@
         <v>N/A</v>
       </c>
       <c r="J10" s="74" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30.75" customHeight="1">
+      <c r="A11" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="104"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="75">
         <f>SUM(C2:C10)</f>
         <v>479</v>
@@ -9319,6 +10241,11 @@
       </c>
       <c r="J11" s="78"/>
     </row>
+    <row r="12" spans="1:10"/>
+    <row r="13" spans="1:10"/>
+    <row r="15" spans="1:10"/>
+    <row r="16" spans="1:10"/>
+    <row r="17"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A11:B11"/>
@@ -9329,8 +10256,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004DC2141999F3A34989E45D589C11CC4C" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="918556ba9ccfead8ca9357386d544127">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65d4c795-5362-4472-a968-0591b4901adb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c530c116c4dd2fcce78a168facf9756a" ns2:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004DC2141999F3A34989E45D589C11CC4C" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="24d699b8f429e1560400ef0a67812efe">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65d4c795-5362-4472-a968-0591b4901adb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee8f884f8b22b9ab402ffe2da75b1f05" ns2:_="">
     <xsd:import namespace="65d4c795-5362-4472-a968-0591b4901adb"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -9466,52 +10408,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FF5AA3E-5A11-41C2-A689-B9F5DAF31415}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="65d4c795-5362-4472-a968-0591b4901adb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54FC4B52-E37B-45F0-B4A0-9948E136C18E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4EEDA73-8B6B-4F61-82BF-6CC2097B50BA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4EEDA73-8B6B-4F61-82BF-6CC2097B50BA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54FC4B52-E37B-45F0-B4A0-9948E136C18E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E91CB2A-99E8-43BD-8637-15FC1F69976A}"/>
 </file>